--- a/New_John_EMS_Module_Library_TCP/TCP Info/TCP Putty Test Cases.xlsx
+++ b/New_John_EMS_Module_Library_TCP/TCP Info/TCP Putty Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\New_John_EMS_Module_Library_TCP\TCP Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5DA19-1E2F-45D4-985F-6DED1A00EF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A9A0CE-F56C-47BB-91BB-7ECC94C43DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="945" windowWidth="22650" windowHeight="11970" xr2:uid="{117AF618-641C-4A92-974A-9DF04D6D90EC}"/>
+    <workbookView xWindow="6910" yWindow="1130" windowWidth="23940" windowHeight="19390" xr2:uid="{117AF618-641C-4A92-974A-9DF04D6D90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>CAMERA</t>
   </si>
@@ -165,22 +165,10 @@
     <t>MESSAGE</t>
   </si>
   <si>
-    <t>REQUEST [EMS SW client to Crestron Server]</t>
-  </si>
-  <si>
     <t>Privacy</t>
   </si>
   <si>
     <t>Header</t>
-  </si>
-  <si>
-    <t>Status: {[Request][Status][1,2]} *Note our config only has room ids 1 and 2. So will check this.</t>
-  </si>
-  <si>
-    <t>{[ACK][Status][room 1][status value],[ACK][Status][room 2][status value]}</t>
-  </si>
-  <si>
-    <t>Status: {[Request][Status][0]}</t>
   </si>
   <si>
     <t>QUESTION: If a Room is selected, having different camera’s for that room show up. Assume this is a second template subpage to add?  So we need both as templates?
@@ -212,12 +200,6 @@
 * We already have paging route and room mute, but here we're requesting the status of these.</t>
   </si>
   <si>
-    <t>*Yes = this request only needs to go one way.  Johns stuff is right!
-QUESTION: * John has only one way, EMS sw request room recording status from Crestron, surprised Crestron never requests that from EMS?
-QUESTION: * If room can be recorded and in privacy at the same time seems like John's "Status" command would need to be fixed?
-* Also, the "Privacy" command therefore could be redundant</t>
-  </si>
-  <si>
     <t>The Scheduler in TCP sheet is the EMS SW!</t>
   </si>
   <si>
@@ -240,12 +222,6 @@
     <t xml:space="preserve">EMS SW Client [PUTTY] -&gt;Crestron Server </t>
   </si>
   <si>
-    <t>*Say there are 2 TP's, then there would be 2 paging mics. So the input route # would be 6 and the output  # would be room ceiling spk, which also starts at 6.  So room 1 would be 6.  So route mic 2 to room 3 would be input 7 to output 8.  Then if added zoning that could be more like a preset maybe like hey route this mic to these 4 rooms or something. 
-*Paging  = EMS SW doesn't currently contain feedback
- of state of Paging. Someone can route in SW, and then they just tell Crestron for FB. When Crestron pages it calls Biamp and doesn't need to tell EMS Sw, gets FB from Biamp I think.
-*Paging Matrix quantity either 1 or 2.  Matrix 2 is for Paging, starting at input 6.</t>
-  </si>
-  <si>
     <t>0 for all Rooms</t>
   </si>
   <si>
@@ -282,19 +258,7 @@
     <t>Clear</t>
   </si>
   <si>
-    <t>{[Paging][Route][6][1]}</t>
-  </si>
-  <si>
-    <t>{[Paging][Route][6][1,2]}</t>
-  </si>
-  <si>
     <t>{[Paging][Route][6][0]}</t>
-  </si>
-  <si>
-    <t>{[Paging][Route][6][1],[Paging][Route][6][2]}</t>
-  </si>
-  <si>
-    <t>Crestron Client-&gt; ONLY to Biamp</t>
   </si>
   <si>
     <t>*mutes ceiling mic in the room. Since this goes to the camera.
@@ -310,12 +274,131 @@
 *So, Room Mute,mic.  1 per room.   Think these depend on Biamp values, but John has it so room1 uses Mute_1 instance.
 *The Crestron tells SW to record room.  The SW DOES tell Crestron it has recorded the room in the form of fb, if room recorded, tell Crestron so it can highlight the button.  </t>
   </si>
+  <si>
+    <t>{[Paging][Clear][6][6]}</t>
+  </si>
+  <si>
+    <t>{[Paging][Route][6][6,7]}</t>
+  </si>
+  <si>
+    <t>paging mic 1 to rooms 1,2</t>
+  </si>
+  <si>
+    <t>paging to all rooms</t>
+  </si>
+  <si>
+    <t>{[Paging][Route][6][6],[Paging][Route][6][7]}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{[Paging][Route][6][6]} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ ACKS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{[Room][Status][RM01][1]}  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ ACKS</t>
+    </r>
+  </si>
+  <si>
+    <t>{[Paging][Clear][6][6,7]}</t>
+  </si>
+  <si>
+    <t>{[Paging][Clear][6][0]}</t>
+  </si>
+  <si>
+    <t>{[Paging][Clear][6][6],[Paging][Clear][6][7]}</t>
+  </si>
+  <si>
+    <t>{[Paging][Zone][6][Zone1]}</t>
+  </si>
+  <si>
+    <t>{[Paging][Zone][6][Zone2],[Paging][Zone][6][Zone1]}</t>
+  </si>
+  <si>
+    <t>TP Crestron Client-&gt; ONLY to Biamp</t>
+  </si>
+  <si>
+    <t>Route Room 1</t>
+  </si>
+  <si>
+    <t>Route Room 2</t>
+  </si>
+  <si>
+    <t>Unroute Room 1</t>
+  </si>
+  <si>
+    <t>Unroute Room 2</t>
+  </si>
+  <si>
+    <t>Page All</t>
+  </si>
+  <si>
+    <t>Clear All</t>
+  </si>
+  <si>
+    <t>Zone 1</t>
+  </si>
+  <si>
+    <t>Zone 2</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>* Paging from SW.   This programming would have to add the zones as presets in biamp before deployed.  But if want zone on fly, maybe SW will send us individual routes? 
+* in our Mute and Biamp Processing, thing we want to save feedback state from here?  Or somewhere?
+*Say there are 2 TP's, then there would be 2 paging mics. So the input route # would be 6 and the output  # would be room ceiling spk, which also starts at 6.  So room 1 would be 6.  So route mic 2 to room 3 would be input 7 to output 8.  Then if added zoning that could be more like a preset maybe like hey route this mic to these 4 rooms or something. 
+*Biamp program clearly working. But do I need to use the Obejct datareceived as the trigger for the FB, AND THEN that is what needs to highlight the TP button or send ACK to SW??
+*Paging  = EMS SW doesn't currently contain feedback
+ of state of Paging. Someone can route in SW, and then they just tell Crestron for FB. When Crestron pages it calls Biamp and doesn't need to tell EMS Sw, gets FB from Biamp I think.
+*Paging Matrix quantity either 1 or 2.  Matrix 2 is for Paging, starting at input 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>REQUEST</t>
+  </si>
+  <si>
+    <t>{[Request][Status][1,2]}
+{[ACK][Status][room 1][status value],[ACK][Status][room 2][status value]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: {[Request][Status][0]}
+{[ACK][Status][room 1][status value],[ACK][Status][room 2][status value]}
+</t>
+  </si>
+  <si>
+    <t>All Rooms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +431,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF2485C"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,13 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -432,22 +529,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8A7121-B9AA-4E0E-9B0F-4628FA59633E}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -817,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -879,8 +978,8 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
-      <c r="C12" s="11" t="s">
-        <v>57</v>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -890,24 +989,24 @@
       <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>58</v>
+      <c r="C13" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C15" s="11"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -916,45 +1015,45 @@
       <c r="B18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C21" s="11"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C23" s="11"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C25" s="11"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -969,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -990,9 +1089,9 @@
         <v>29</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -1020,40 +1119,37 @@
     </row>
     <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="15"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="19"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="18"/>
+        <v>80</v>
+      </c>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -1089,184 +1185,294 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="B54" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
+      <c r="B55" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="16"/>
-      <c r="B54" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="16"/>
-      <c r="B55" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" t="s">
-        <v>77</v>
+      <c r="A63" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>79</v>
+        <v>59</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
-        <v>76</v>
+      <c r="A69" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
+      <c r="A70" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="17"/>
-    </row>
-    <row r="76" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+      <c r="A72" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="18"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="19"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="16"/>
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="16"/>
+    </row>
+    <row r="85" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>54</v>
+      <c r="C98" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/New_John_EMS_Module_Library_TCP/TCP Info/TCP Putty Test Cases.xlsx
+++ b/New_John_EMS_Module_Library_TCP/TCP Info/TCP Putty Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\New_John_EMS_Module_Library_TCP\TCP Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A9A0CE-F56C-47BB-91BB-7ECC94C43DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0094EE3A-09D5-4794-9A45-DED50799F208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6910" yWindow="1130" windowWidth="23940" windowHeight="19390" xr2:uid="{117AF618-641C-4A92-974A-9DF04D6D90EC}"/>
+    <workbookView xWindow="7850" yWindow="2990" windowWidth="24800" windowHeight="16930" xr2:uid="{117AF618-641C-4A92-974A-9DF04D6D90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
   <si>
     <t>CAMERA</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Leave Privacy</t>
-  </si>
-  <si>
-    <t>{[Room][Status][RM01][1]}</t>
   </si>
   <si>
     <t>{[Room][Status][RM01][2]}</t>
@@ -200,9 +197,6 @@
 * We already have paging route and room mute, but here we're requesting the status of these.</t>
   </si>
   <si>
-    <t>The Scheduler in TCP sheet is the EMS SW!</t>
-  </si>
-  <si>
     <t>PAGING one way.  SW tells Crestron to Page!  IF the Crestron/TP user
 clicks Paging, that's sent to Biamp, but not Crestron!</t>
   </si>
@@ -259,20 +253,6 @@
   </si>
   <si>
     <t>{[Paging][Route][6][0]}</t>
-  </si>
-  <si>
-    <t>*mutes ceiling mic in the room. Since this goes to the camera.
-  (The room speaker doesn't). Corresponds to Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO DO
--feedback is set for both directions by storing data in the Room object both ways, BUT still need to highlight button both ways.
--Minish 1- Yes, we can't do recording when Privacy is enable.    2- Yes, recording will continue, their is no effect on recording.  currently this is the functionality we have.  But In 2nd query we can pop up a message for end user and say that recording is going on privacy won't work.
--Need error checking for people passing wrong commands
--Put set state in front of the ack. If set state failes then you don't ack back. Room commands.
-NOTES
-*So, Room Mute,mic.  1 per room.   Think these depend on Biamp values, but John has it so room1 uses Mute_1 instance.
-*The Crestron tells SW to record room.  The SW DOES tell Crestron it has recorded the room in the form of fb, if room recorded, tell Crestron so it can highlight the button.  </t>
   </si>
   <si>
     <t>{[Paging][Clear][6][6]}</t>
@@ -382,23 +362,122 @@
     <t>REQUEST</t>
   </si>
   <si>
-    <t>{[Request][Status][1,2]}
-{[ACK][Status][room 1][status value],[ACK][Status][room 2][status value]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: {[Request][Status][0]}
-{[ACK][Status][room 1][status value],[ACK][Status][room 2][status value]}
+    <t>All Rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{[Request][Status][0]}
+{[ACK][Status][RM01][status value],[ACK][Status][RM02][status value]}
 </t>
   </si>
   <si>
-    <t>All Rooms</t>
+    <t xml:space="preserve">Status: {[Request][Privacy][0]}
+{[ACK][Privacy][RM01][status value],[ACK][Privacy][RM02][status value]}
+</t>
+  </si>
+  <si>
+    <t>{[Request][Status][RM01,RM02]}
+{[ACK][Status][RM01][status value],[ACK][Status][RM02][status value]}</t>
+  </si>
+  <si>
+    <t>{[Request][Privacy][RM01,RM02]}
+{[ACK][Status][RM01][status value],[ACK][Privacy][RM02][status value]}</t>
+  </si>
+  <si>
+    <t>** DOES THIS REQUEST come from the TP.  Or just console
+command, because user would have to pick a handful of rooms
+at once to get status on.
+*Also, I guess the results would update our feedback?</t>
+  </si>
+  <si>
+    <t>WAIT THIS IS NOT NEEDED??</t>
+  </si>
+  <si>
+    <t>{[Request][Mute][RM01,RM02]}
+{[ACK][Mute][RM01][status value],[ACK][Mute][RM02][status value]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{[Request][Mute][0]}
+{[ACK][Mute][RM01][status value],[ACK][Mute][RM02][status value]}
+</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>If Hercules Server NOT WORKING:
+*Hercules not working: run terminal: ncat -k -l 53125 to start port in terminal
+*Then, GET the ID number, netstat -aon | findstr :53125
+*Then, end the port: taskkill /PID 16408 /F</t>
+  </si>
+  <si>
+    <t>{[Request][Route][6]}
+{[ACK][Route][6][6,7]}</t>
+  </si>
+  <si>
+    <t>* Currently this state of things is not held in array, but rather by the button being lit up. THIS OK?
+* Also, do I need to use the Biamp ACK, as the way the FB needs to be updated.</t>
+  </si>
+  <si>
+    <t>USE LIVE FB EVERYWHERE.  NOT EMULATED!
+IF SW TELLS US, we trust that as live.  But everything else like having to route
+and mute get it from the Biamp</t>
+  </si>
+  <si>
+    <t>Pause Recording; Multi Rooms</t>
+  </si>
+  <si>
+    <t>TO DO
+-When EMS SW reaches out to us, we don’t ACK something is working till we get the ACK from the Biamp. This Always the case!
+NOTES
+*mutes ceiling mic in the room. Since this goes to the camera.
+  (The room speaker doesn't). Corresponds to Room</t>
+  </si>
+  <si>
+    <t>Room Control TP-&gt;Crestron Client-&gt;EMS SW Server [Hercules] -&gt; ACKs to Crestron Client</t>
+  </si>
+  <si>
+    <t>Stop Recording; MultiRooms</t>
+  </si>
+  <si>
+    <t>Start Recording; MultiRooms; ACK back we're in privacy mode</t>
+  </si>
+  <si>
+    <t>{[Room][Status][RM01,RM02][1]}
+{[ACK][Status][RM01][5], [ACK][Status][RM02][5]}</t>
+  </si>
+  <si>
+    <t>{[Room][Status][RM01][1]}
+{[ACK][Status][RM01][1]}</t>
+  </si>
+  <si>
+    <t>{[Room][Status][RM01,RM02][2]}
+{[ACK][Status][RM01][2],[ACK][Status][RM02][2]}</t>
+  </si>
+  <si>
+    <t>{[Room][Status][RM01,RM02][3]}
+{[ACK][Status][RM01][3],[ACK][Status][RM02][3]}</t>
+  </si>
+  <si>
+    <t>* Yes, we get the correct ACKS for all this too!</t>
+  </si>
+  <si>
+    <t>TO DO
+-Minish 1- Yes, we can't do recording when Privacy is enable.    2- Yes, recording will continue, their is no effect on recording.  currently this is the functionality we have.  But In 2nd query we can pop up a message for end user and say that recording is going on privacy won't work.
+-Need error checking for people passing wrong commands
+NOTES
+*So, Room Mute,mic.  1 per room.   Think these depend on Biamp values, but John has it so room1 uses Mute_1 instance.
+*The Crestron tells SW to record room.  The SW DOES tell Crestron it has recorded the room in the form of fb, if room recorded, tell Crestron so it can highlight the button.  
+Johns prot corect, sw determines logic.  Cause they are closer to weather we are in privacy mode or not. So all this recording on privacy logic i think will be with them.</t>
+  </si>
+  <si>
+    <t>*we call biamp, then from TP. Ack from them means update. Like paging, I don't think we need to tell EMS SW we did this</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +528,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +600,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2485C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -512,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -533,19 +646,35 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,17 +1016,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8A7121-B9AA-4E0E-9B0F-4628FA59633E}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="83.1796875" customWidth="1"/>
     <col min="2" max="2" width="67.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.81640625" customWidth="1"/>
+    <col min="3" max="3" width="61.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
@@ -911,130 +1040,135 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="60.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" s="24" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="8"/>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1042,7 +1176,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="10"/>
     </row>
@@ -1051,428 +1185,533 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="C28" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="C37" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="28"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="15"/>
-    </row>
-    <row r="46" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C53" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="13"/>
+      <c r="B65" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="13"/>
+      <c r="B66" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="B67" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:3" ht="319" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14"/>
-      <c r="B54" s="6" t="s">
+    <row r="75" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14"/>
-      <c r="B55" s="6" t="s">
+      <c r="B75" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14" t="s">
+      <c r="B76" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="6" t="s">
+      <c r="B77" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="B79" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="17"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B94" s="18"/>
+    </row>
+    <row r="96" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A102" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="21"/>
+    </row>
+    <row r="104" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="6" t="s">
+      <c r="C104" s="19"/>
+    </row>
+    <row r="105" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="19"/>
+    </row>
+    <row r="106" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="C106" s="19"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+    </row>
+    <row r="108" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="18"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" s="19"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="16"/>
-      <c r="B83" s="20"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="16"/>
-    </row>
-    <row r="85" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="21"/>
-    </row>
-    <row r="93" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>101</v>
-      </c>
-      <c r="B93" s="9" t="s">
+      <c r="B109" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A110" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="123" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
